--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1899177.787841027</v>
+        <v>1907871.114128669</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584666</v>
+        <v>460545.8926584663</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075586</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7605832.043947844</v>
+        <v>7605832.043947845</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>238.5634410073764</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>145.9272112248127</v>
       </c>
       <c r="U3" t="n">
-        <v>112.5744027380783</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,64 +905,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>220.8837963815378</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.8799651127985</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>190.1066023865956</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>24.38096634370151</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>185.6562165419322</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>167.6870524067201</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>144.1648043931067</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>58.50987888687372</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>378.9218776075604</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>42.72398356738739</v>
+        <v>104.262613881998</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
@@ -1743,7 +1743,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>39.72916582548073</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>78.15662322069609</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1977,19 +1977,19 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
-        <v>95.62025615464796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>48.37669028362031</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>111.060750249129</v>
       </c>
       <c r="E19" t="n">
-        <v>129.6635172592366</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>346.6693569641238</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
@@ -2099,7 +2099,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>166.5703709901014</v>
       </c>
     </row>
     <row r="21">
@@ -2166,10 +2166,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>6.673890207337569</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
@@ -2178,7 +2178,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.67466233815726</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>28.06810387421962</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>25.96361909966784</v>
       </c>
       <c r="C23" t="n">
-        <v>143.7390266467201</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>97.0633272237752</v>
+        <v>104.262613881998</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>43.03218749909144</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>95.96326970426354</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>121.393646812485</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
@@ -2615,10 +2615,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>180.8778284652363</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>21.73730874025234</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>45.56224815806319</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.8658322964595</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>16.83786409935511</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>178.7163073318687</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>100.035014724943</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>195.443275668797</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>48.23721201220846</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2992,22 +2992,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>147.3472002825671</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.83786409935511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>383.1282703720288</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
@@ -3092,10 +3092,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>223.0742564953441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3126,7 +3126,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>24.11316191150723</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>60.36693997173244</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>77.41754251185407</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,22 +3269,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>139.9374201800241</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>8.784519550421932</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3351,19 +3351,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>104.262613881998</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,19 +3424,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>156.6932352543221</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>50.15718953603345</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>117.889549819912</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>162.652701399768</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,16 +3591,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>91.68674581998179</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>268.9755074231831</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>26.56844957122999</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>100.7763204425774</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>40.15097604665252</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>50.15718953603345</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>16.60419956430074</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>394.8227693495686</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>318.6147334280091</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -4104,13 +4104,13 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>100.053298877208</v>
       </c>
       <c r="U45" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>122.5415447766139</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>208.1860399441541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>254.2858631377404</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F2" t="n">
-        <v>247.340362388537</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>474.7416984028202</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C3" t="n">
-        <v>474.7416984028202</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D3" t="n">
-        <v>325.807288741569</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E3" t="n">
-        <v>166.5698337361135</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="U3" t="n">
-        <v>474.7416984028202</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="V3" t="n">
-        <v>474.7416984028202</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="W3" t="n">
-        <v>474.7416984028202</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="X3" t="n">
-        <v>474.7416984028202</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="Y3" t="n">
-        <v>474.7416984028202</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>710.516763498309</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>710.516763498309</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372.6384501595139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>372.6384501595139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>562.4161926976942</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>562.4161926976942</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>562.4161926976942</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>372.6384501595139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>372.6384501595139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4765,10 +4765,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4841,13 +4841,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.90838184122435</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>43.90838184122435</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>43.90838184122435</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>43.90838184122435</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>43.90838184122435</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>43.90838184122435</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="W9" t="n">
-        <v>627.7355178317791</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X9" t="n">
-        <v>419.8840176262463</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y9" t="n">
-        <v>212.1237188612924</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>767.4026914201181</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C11" t="n">
-        <v>767.4026914201181</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D11" t="n">
-        <v>767.4026914201181</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E11" t="n">
-        <v>381.6144388218739</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F11" t="n">
-        <v>381.6144388218739</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G11" t="n">
-        <v>381.6144388218739</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H11" t="n">
         <v>212.2335778049849</v>
@@ -5039,16 +5039,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5063,28 +5063,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>1917.607621721131</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>1544.141863460052</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>1154.00253148424</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>676.0544483625931</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C12" t="n">
-        <v>501.6014190814661</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>352.6670094202149</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H12" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L12" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
-        <v>1977.451513658935</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U12" t="n">
-        <v>1749.271049313092</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V12" t="n">
-        <v>1514.118941081349</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W12" t="n">
-        <v>1259.881584353148</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X12" t="n">
-        <v>1052.030084147615</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y12" t="n">
-        <v>844.2697853826612</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="13">
@@ -5185,7 +5185,7 @@
         <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>460.8786259383999</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
         <v>401.7777381738809</v>
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1584.684223757015</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C14" t="n">
-        <v>1584.684223757015</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.418525150264</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E14" t="n">
-        <v>840.63027255202</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>429.6443677624124</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5318,10 +5318,10 @@
         <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>1971.284063821136</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>1971.284063821136</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>857.284873186858</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C15" t="n">
-        <v>682.831843905731</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D15" t="n">
-        <v>533.8974342444798</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E15" t="n">
-        <v>374.6599792390243</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="F15" t="n">
-        <v>228.1254212659092</v>
+        <v>152.2107680396221</v>
       </c>
       <c r="G15" t="n">
-        <v>90.05053539860128</v>
+        <v>152.2107680396221</v>
       </c>
       <c r="H15" t="n">
         <v>46.89499644164432</v>
@@ -5355,22 +5355,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P15" t="n">
         <v>2344.749822082216</v>
@@ -5391,16 +5391,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1695.349365905614</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1441.112009177413</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1233.26050897188</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y15" t="n">
-        <v>1025.500210206926</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F16" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G16" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H16" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I16" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5455,31 +5455,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>841.7762365110889</v>
+        <v>1539.569324489713</v>
       </c>
       <c r="C17" t="n">
-        <v>472.8137195706772</v>
+        <v>1539.569324489713</v>
       </c>
       <c r="D17" t="n">
-        <v>432.6832490398886</v>
+        <v>1181.303625882962</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G17" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H17" t="n">
         <v>46.89499644164432</v>
@@ -5513,13 +5513,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5549,16 +5549,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>2265.803738020907</v>
       </c>
       <c r="W17" t="n">
-        <v>1991.981166812102</v>
+        <v>1913.035082750793</v>
       </c>
       <c r="X17" t="n">
-        <v>1618.515408551022</v>
+        <v>1539.569324489713</v>
       </c>
       <c r="Y17" t="n">
-        <v>1228.376076575211</v>
+        <v>1539.569324489713</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5595,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L18" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N18" t="n">
         <v>1486.172378671464</v>
@@ -5625,16 +5625,16 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1923.529830251457</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.854855989795</v>
+        <v>1157.094557224842</v>
       </c>
       <c r="Y18" t="n">
         <v>1157.094557224842</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>318.3514033993496</v>
+        <v>159.0775724508656</v>
       </c>
       <c r="C19" t="n">
-        <v>318.3514033993496</v>
+        <v>159.0775724508656</v>
       </c>
       <c r="D19" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E19" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F19" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G19" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I19" t="n">
         <v>46.89499644164432</v>
@@ -5701,22 +5701,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V19" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W19" t="n">
-        <v>318.3514033993496</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X19" t="n">
-        <v>318.3514033993496</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y19" t="n">
-        <v>318.3514033993496</v>
+        <v>159.0775724508656</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1311.025022288588</v>
+        <v>1164.47789022513</v>
       </c>
       <c r="C20" t="n">
-        <v>1311.025022288588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D20" t="n">
-        <v>1311.025022288588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E20" t="n">
-        <v>1311.025022288588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5786,16 +5786,16 @@
         <v>2050.393517622824</v>
       </c>
       <c r="V20" t="n">
-        <v>2050.393517622824</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.62486235271</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.62486235271</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.62486235271</v>
+        <v>1551.077730289252</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C21" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D21" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E21" t="n">
-        <v>292.0040227730022</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F21" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5832,7 +5832,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922997</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
         <v>705.6153558007836</v>
@@ -5853,28 +5853,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>379.7790225382929</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="C22" t="n">
-        <v>379.7790225382929</v>
+        <v>222.136564014524</v>
       </c>
       <c r="D22" t="n">
-        <v>379.7790225382929</v>
+        <v>222.136564014524</v>
       </c>
       <c r="E22" t="n">
-        <v>231.8659289558998</v>
+        <v>222.136564014524</v>
       </c>
       <c r="F22" t="n">
-        <v>216.0329366951349</v>
+        <v>75.24661651661364</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>75.24661651661364</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>75.24661651661364</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5911,7 +5911,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
@@ -5935,25 +5935,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="X22" t="n">
-        <v>379.7790225382929</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="Y22" t="n">
-        <v>379.7790225382929</v>
+        <v>391.0727469424309</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1407.131857353399</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="C23" t="n">
-        <v>1261.940921346611</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D23" t="n">
-        <v>1261.940921346611</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E23" t="n">
-        <v>876.152668748367</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F23" t="n">
-        <v>465.1667639587595</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H23" t="n">
         <v>46.89499644164432</v>
@@ -5987,13 +5987,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6008,31 +6008,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2090.963399967084</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>1759.900512623513</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>1407.131857353399</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X23" t="n">
-        <v>1407.131857353399</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y23" t="n">
-        <v>1407.131857353399</v>
+        <v>1618.515408551022</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>682.5765037404603</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>508.1234744593334</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>359.1890647980821</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>261.1452999255819</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592725</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O24" t="n">
-        <v>2042.280991189052</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1058.552139525482</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>850.7918407605284</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C25" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D25" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E25" t="n">
-        <v>2196.836728499823</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F25" t="n">
-        <v>2049.946781001913</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G25" t="n">
-        <v>1880.808840748422</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H25" t="n">
         <v>1783.87624508755</v>
@@ -6184,13 +6184,13 @@
         <v>2344.749822082216</v>
       </c>
       <c r="W25" t="n">
-        <v>2344.749822082216</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X25" t="n">
-        <v>2344.749822082216</v>
+        <v>1827.343101147238</v>
       </c>
       <c r="Y25" t="n">
-        <v>2344.749822082216</v>
+        <v>1827.343101147238</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>169.5148417067807</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="C26" t="n">
-        <v>169.5148417067807</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="D26" t="n">
-        <v>169.5148417067807</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="E26" t="n">
-        <v>169.5148417067807</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F26" t="n">
-        <v>169.5148417067807</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6224,16 +6224,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6248,28 +6248,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U26" t="n">
-        <v>1613.411982645667</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V26" t="n">
-        <v>1282.349095302096</v>
+        <v>1356.722640393067</v>
       </c>
       <c r="W26" t="n">
-        <v>929.5804400319823</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="X26" t="n">
-        <v>556.1146817709025</v>
+        <v>1174.017763155455</v>
       </c>
       <c r="Y26" t="n">
-        <v>556.1146817709025</v>
+        <v>1174.017763155455</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>636.554030853528</v>
       </c>
       <c r="C27" t="n">
-        <v>600.175887439709</v>
+        <v>462.101001572401</v>
       </c>
       <c r="D27" t="n">
-        <v>451.2414777784577</v>
+        <v>313.1665919111497</v>
       </c>
       <c r="E27" t="n">
-        <v>292.0040227730022</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="F27" t="n">
-        <v>292.0040227730022</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G27" t="n">
         <v>153.9291369056942</v>
@@ -6303,22 +6303,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
         <v>2344.749822082216</v>
@@ -6327,28 +6327,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2298.727349195284</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2137.493794095839</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>1937.95109614987</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1709.770631804027</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1474.618523572284</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1220.381166844083</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1012.52966663855</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>804.7693678735961</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L28" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M28" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N28" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O28" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R28" t="n">
-        <v>607.7685734363102</v>
+        <v>2190.391887156797</v>
       </c>
       <c r="S28" t="n">
-        <v>607.7685734363102</v>
+        <v>2004.66882423108</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363102</v>
+        <v>2004.66882423108</v>
       </c>
       <c r="U28" t="n">
-        <v>318.5874281822333</v>
+        <v>2004.66882423108</v>
       </c>
       <c r="V28" t="n">
-        <v>63.90293997634646</v>
+        <v>2004.66882423108</v>
       </c>
       <c r="W28" t="n">
-        <v>46.89499644164432</v>
+        <v>2004.66882423108</v>
       </c>
       <c r="X28" t="n">
-        <v>46.89499644164432</v>
+        <v>2004.66882423108</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1003.953985122953</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="C29" t="n">
-        <v>1003.953985122953</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="D29" t="n">
-        <v>645.6882865162027</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="E29" t="n">
-        <v>645.6882865162027</v>
+        <v>896.5608427038526</v>
       </c>
       <c r="F29" t="n">
-        <v>645.6882865162027</v>
+        <v>896.5608427038526</v>
       </c>
       <c r="G29" t="n">
-        <v>227.4165189990875</v>
+        <v>478.2890751867374</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>147.9404658607787</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6482,31 +6482,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>1687.785527736638</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V29" t="n">
-        <v>1356.722640393067</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W29" t="n">
-        <v>1003.953985122953</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="X29" t="n">
-        <v>1003.953985122953</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="Y29" t="n">
-        <v>1003.953985122953</v>
+        <v>1282.349095302097</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6543,7 +6543,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L30" t="n">
         <v>642.6780758583286</v>
@@ -6573,19 +6573,19 @@
         <v>2084.763385350902</v>
       </c>
       <c r="U30" t="n">
-        <v>1856.582921005059</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V30" t="n">
-        <v>1621.430812773317</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="31">
@@ -6640,28 +6640,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U31" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V31" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W31" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X31" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
         <v>46.89499644164432</v>
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>405.1606950483944</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="C32" t="n">
-        <v>405.1606950483944</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="D32" t="n">
-        <v>46.89499644164391</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="E32" t="n">
-        <v>46.89499644164391</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164391</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164391</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164391</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915531</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,31 +6719,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>1941.571949851771</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U32" t="n">
-        <v>1687.785527736638</v>
+        <v>1613.411982645668</v>
       </c>
       <c r="V32" t="n">
-        <v>1356.722640393067</v>
+        <v>1282.349095302097</v>
       </c>
       <c r="W32" t="n">
-        <v>1003.953985122953</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="X32" t="n">
-        <v>630.4882268618733</v>
+        <v>929.5804400319828</v>
       </c>
       <c r="Y32" t="n">
-        <v>405.1606950483944</v>
+        <v>929.5804400319828</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>622.1327649551154</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>622.1327649551154</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>462.8953099496599</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>316.3607519765449</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>178.2858661092369</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>71.25172564518698</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
         <v>1637.630816213677</v>
@@ -6807,22 +6807,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L34" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M34" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N34" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O34" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>2327.741878547514</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>2327.741878547514</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>2327.741878547514</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>2327.741878547514</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>2038.560733293437</v>
+        <v>529.5690355455486</v>
       </c>
       <c r="V34" t="n">
-        <v>1783.87624508755</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="W34" t="n">
-        <v>1783.87624508755</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2115.893810642661</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="C35" t="n">
-        <v>2115.893810642661</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.628112035911</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="E35" t="n">
-        <v>1371.839859437666</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="F35" t="n">
-        <v>960.8539546480588</v>
+        <v>518.5945352423748</v>
       </c>
       <c r="G35" t="n">
-        <v>542.5821871309436</v>
+        <v>518.5945352423748</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>188.2459259164161</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6938,10 +6938,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2335.876570011083</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2335.876570011083</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2115.893810642661</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>2115.893810642661</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>2115.893810642661</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W35" t="n">
-        <v>2115.893810642661</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X35" t="n">
-        <v>2115.893810642661</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="Y35" t="n">
-        <v>2115.893810642661</v>
+        <v>929.5804400319823</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>152.2107680396221</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>152.2107680396221</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7044,22 +7044,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>353.0840852304234</v>
+        <v>97.55882425581953</v>
       </c>
       <c r="C37" t="n">
-        <v>194.8080900240374</v>
+        <v>97.55882425581953</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8080900240374</v>
+        <v>97.55882425581953</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>97.55882425581953</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>97.55882425581953</v>
       </c>
       <c r="G37" t="n">
         <v>46.89499644164432</v>
@@ -7129,16 +7129,16 @@
         <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>353.0840852304234</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>353.0840852304234</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X37" t="n">
-        <v>353.0840852304234</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y37" t="n">
-        <v>353.0840852304234</v>
+        <v>97.55882425581953</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.89499644164432</v>
+        <v>1536.13551741723</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>1536.13551741723</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>1536.13551741723</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J38" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915539</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275671</v>
+        <v>392.902094927568</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244555</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
       </c>
       <c r="O38" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972114</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733488</v>
       </c>
       <c r="Q38" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R38" t="n">
         <v>2270.376276991246</v>
@@ -7202,22 +7202,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>1867.198404760801</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>1867.198404760801</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>1536.13551741723</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319823</v>
+        <v>1536.13551741723</v>
       </c>
       <c r="X38" t="n">
-        <v>556.1146817709025</v>
+        <v>1536.13551741723</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.9753497950908</v>
+        <v>1536.13551741723</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551163</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739893</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>298.745326012738</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072825</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072825</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I39" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J39" t="n">
         <v>106.8945330050503</v>
@@ -7260,43 +7260,43 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832911</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671465</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.884810267791</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2193.291384540004</v>
       </c>
       <c r="Q39" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2284.306083296872</v>
       </c>
       <c r="S39" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197427</v>
       </c>
       <c r="T39" t="n">
-        <v>2284.306083296871</v>
+        <v>1923.529830251458</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905615</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673873</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.959900945671</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401382</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751844</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702978</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7363,19 +7363,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>318.5874281822333</v>
+        <v>336.312166478605</v>
       </c>
       <c r="V40" t="n">
-        <v>318.5874281822333</v>
+        <v>336.312166478605</v>
       </c>
       <c r="W40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164434</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>73.73181419036149</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="C41" t="n">
-        <v>46.89499644164432</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="D41" t="n">
-        <v>46.89499644164432</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G41" t="n">
         <v>46.89499644164432</v>
@@ -7436,25 +7436,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2161.554709220192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>2161.554709220192</v>
+        <v>2242.955559008906</v>
       </c>
       <c r="U41" t="n">
-        <v>1907.76828710506</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="V41" t="n">
-        <v>1576.705399761489</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="W41" t="n">
-        <v>1223.936744491375</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="X41" t="n">
-        <v>850.470986230295</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="Y41" t="n">
-        <v>460.3316542544833</v>
+        <v>1989.169136893773</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M42" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
         <v>1486.172378671464</v>
@@ -7512,25 +7512,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T42" t="n">
-        <v>2123.072528197426</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U42" t="n">
-        <v>1894.892063851584</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V42" t="n">
-        <v>1659.739955619841</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W42" t="n">
-        <v>1405.50259889164</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X42" t="n">
-        <v>1197.651098686107</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y42" t="n">
         <v>1157.094557224842</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.55882425581953</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C43" t="n">
-        <v>97.55882425581953</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D43" t="n">
-        <v>97.55882425581953</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E43" t="n">
-        <v>97.55882425581953</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F43" t="n">
-        <v>97.55882425581953</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V43" t="n">
-        <v>607.7685734363102</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W43" t="n">
-        <v>318.3514033993496</v>
+        <v>1800.648163839369</v>
       </c>
       <c r="X43" t="n">
-        <v>318.3514033993496</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.55882425581953</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1738.167222649673</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C44" t="n">
-        <v>1738.167222649673</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D44" t="n">
-        <v>1738.167222649673</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E44" t="n">
-        <v>1352.378970051428</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>941.393065261821</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7670,28 +7670,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U44" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V44" t="n">
-        <v>2124.767062713795</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W44" t="n">
-        <v>2124.767062713795</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="X44" t="n">
-        <v>2124.767062713795</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y44" t="n">
-        <v>2124.767062713795</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H45" t="n">
         <v>114.6107419524668</v>
@@ -7728,13 +7728,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
         <v>1637.630816213677</v>
@@ -7752,25 +7752,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T45" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.242145037065</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>318.5874281822333</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C46" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
         <v>46.89499644164432</v>
@@ -7837,19 +7837,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V46" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W46" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X46" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y46" t="n">
-        <v>318.5874281822333</v>
+        <v>397.479644199791</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8073,10 +8073,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,10 +8304,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L12" t="n">
-        <v>367.8729277488643</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>254.8897585970532</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>323.3866360392488</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>315.4953510853424</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>57.08896698613911</v>
@@ -10191,10 +10191,10 @@
         <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L30" t="n">
-        <v>367.8729277488643</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>323.3866360392488</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720741</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574071</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392485</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>159.358070825979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23349,13 +23349,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>53.38246657340289</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>108.9366819640819</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>35.1671722343836</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23580,19 +23580,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>63.23981549202204</v>
+        <v>1.701185177411446</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23631,7 +23631,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23662,19 +23662,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>78.27223734092829</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>314.9538757952022</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -23789,7 +23789,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>249.5956352494388</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23865,19 +23865,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>137.1803309947773</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>157.3962949198572</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>37.55472276908333</v>
       </c>
       <c r="E19" t="n">
-        <v>16.77044538733253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23941,7 +23941,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>60.2066887775876</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,16 +24026,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>219.6675676659522</v>
       </c>
     </row>
     <row r="21">
@@ -24054,10 +24054,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>150.9711902480634</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24066,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>5.910500182201289</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>129.746385684774</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>111.010221754672</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>356.7702225638128</v>
       </c>
       <c r="C23" t="n">
-        <v>221.5338651242875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24260,16 +24260,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24291,7 +24291,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>60.58175323162574</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24303,7 +24303,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7997926828459</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
-        <v>61.42352734555733</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
         <v>139.0783256288916</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>292.6954030294589</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24503,10 +24503,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>168.3631402521767</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24522,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>150.9711902480634</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.27705323942823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>30.66303593248099</v>
       </c>
       <c r="T28" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>269.6851342372359</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,10 +24683,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>148.3288159008304</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>63.65018082476413</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24774,10 +24774,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,13 +24813,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>30.45538403358736</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>203.4577711487111</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24880,22 +24880,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>78.27223734092829</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>201.7467892527397</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24920,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>30.96077946991517</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24980,10 +24980,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>163.1636821607095</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,10 +24996,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25014,7 +25014,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>42.92542614420703</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,10 +25047,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>137.1803309947772</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.73655303769088</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
         <v>152.8143555761653</v>
@@ -25129,7 +25129,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>208.8717912896821</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,22 +25157,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>23.7477753696831</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,22 +25199,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>64.84529008963919</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25239,19 +25239,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.701185177411446</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,10 +25284,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>10.55358584430573</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>117.2893713149222</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
@@ -25369,16 +25369,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>264.8442918435686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,19 +25397,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>219.2776686724938</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,19 +25445,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25479,16 +25479,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>45.00739118865307</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,13 +25518,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>17.54749091340796</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>17.5474909134079</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>338.7044421997775</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
@@ -25676,25 +25676,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>117.0066113321601</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>165.5317197306518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>117.2893713149222</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
         <v>157.3867970498209</v>
@@ -25843,16 +25843,16 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>209.1054558247364</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>19.26628049237536</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>51.11636725045992</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25959,7 +25959,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>97.49397208930165</v>
       </c>
       <c r="U45" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>26.07392824159841</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26077,7 +26077,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>10.39861340794073</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581454.6789867501</v>
+        <v>581454.6789867498</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.6789867501</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>581454.67898675</v>
+        <v>581454.6789867501</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.67898675</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>581454.67898675</v>
+        <v>581454.6789867501</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>581454.67898675</v>
+        <v>581454.6789867501</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.6789867501</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.67898675</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>581454.6789867501</v>
+        <v>581454.6789867498</v>
       </c>
     </row>
     <row r="16">
@@ -26314,13 +26314,13 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>370126.5396699014</v>
+        <v>370126.5396699015</v>
       </c>
       <c r="F2" t="n">
         <v>370126.5396699014</v>
@@ -26329,19 +26329,19 @@
         <v>370126.5396699014</v>
       </c>
       <c r="H2" t="n">
-        <v>370126.5396699015</v>
+        <v>370126.5396699012</v>
       </c>
       <c r="I2" t="n">
-        <v>370126.5396699013</v>
+        <v>370126.5396699014</v>
       </c>
       <c r="J2" t="n">
         <v>370126.5396699014</v>
       </c>
       <c r="K2" t="n">
-        <v>370126.5396699012</v>
+        <v>370126.5396699014</v>
       </c>
       <c r="L2" t="n">
-        <v>370126.5396699012</v>
+        <v>370126.5396699014</v>
       </c>
       <c r="M2" t="n">
         <v>370126.5396699012</v>
@@ -26350,7 +26350,7 @@
         <v>370126.5396699013</v>
       </c>
       <c r="O2" t="n">
-        <v>370126.5396699014</v>
+        <v>370126.5396699013</v>
       </c>
       <c r="P2" t="n">
         <v>370126.5396699012</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="C4" t="n">
-        <v>305235.439433617</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>305235.4394336169</v>
+        <v>304227.7958470786</v>
       </c>
       <c r="E4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="F4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="G4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="H4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="I4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="J4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="K4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="L4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="M4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761897</v>
       </c>
       <c r="N4" t="n">
-        <v>27764.31241904687</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="O4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761897</v>
       </c>
       <c r="P4" t="n">
-        <v>27764.31241904688</v>
+        <v>26710.01986761897</v>
       </c>
     </row>
     <row r="5">
@@ -26503,7 +26503,7 @@
         <v>42221.72212544655</v>
       </c>
       <c r="N5" t="n">
-        <v>42221.72212544655</v>
+        <v>42221.72212544657</v>
       </c>
       <c r="O5" t="n">
         <v>42221.72212544655</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140443.099176072</v>
+        <v>141450.7427626103</v>
       </c>
       <c r="C6" t="n">
-        <v>221212.5307076195</v>
+        <v>222220.1742941579</v>
       </c>
       <c r="D6" t="n">
-        <v>221212.5307076196</v>
+        <v>222220.1742941581</v>
       </c>
       <c r="E6" t="n">
-        <v>-45471.83765354475</v>
+        <v>-44417.54510211671</v>
       </c>
       <c r="F6" t="n">
-        <v>300140.5051254079</v>
+        <v>301194.7976768359</v>
       </c>
       <c r="G6" t="n">
-        <v>300140.5051254079</v>
+        <v>301194.7976768359</v>
       </c>
       <c r="H6" t="n">
-        <v>300140.5051254081</v>
+        <v>301194.7976768357</v>
       </c>
       <c r="I6" t="n">
-        <v>300140.5051254079</v>
+        <v>301194.7976768359</v>
       </c>
       <c r="J6" t="n">
-        <v>237080.5625263018</v>
+        <v>238134.8550777296</v>
       </c>
       <c r="K6" t="n">
-        <v>300140.5051254078</v>
+        <v>301194.7976768358</v>
       </c>
       <c r="L6" t="n">
-        <v>300140.5051254078</v>
+        <v>301194.7976768358</v>
       </c>
       <c r="M6" t="n">
-        <v>214121.9713053318</v>
+        <v>215176.2638567597</v>
       </c>
       <c r="N6" t="n">
-        <v>300140.5051254079</v>
+        <v>301194.7976768358</v>
       </c>
       <c r="O6" t="n">
-        <v>300140.5051254079</v>
+        <v>301194.7976768358</v>
       </c>
       <c r="P6" t="n">
-        <v>300140.5051254078</v>
+        <v>301194.7976768357</v>
       </c>
     </row>
   </sheetData>
@@ -26747,13 +26747,13 @@
         <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26823,7 +26823,7 @@
         <v>586.1874555205541</v>
       </c>
       <c r="N4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.1874555205543</v>
       </c>
       <c r="O4" t="n">
         <v>586.1874555205541</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>143.3669290648854</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27430,13 +27430,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>54.23751747000892</v>
       </c>
       <c r="U3" t="n">
-        <v>113.3669793428965</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>130.5841931152253</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>175.1662893844119</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>185.9922493601736</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27673,16 +27673,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,13 +27710,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>17.89302009067899</v>
+        <v>201.1924361087609</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>208.1513597462248</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>191.8237676856662</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27947,7 +27947,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>87.85447789279495</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>14.50851215288941</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>68.60374760888197</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31993,7 +31993,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32014,22 +32014,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32084,25 +32084,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
         <v>2.617457728311981</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R16" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32488,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32558,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34793,10 +34793,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,10 +35024,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>169.9091475161414</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L12" t="n">
-        <v>370.3166381105403</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35507,7 +35507,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
@@ -35659,13 +35659,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35738,10 +35738,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
-        <v>244.9184791209679</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35820,7 +35820,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35972,7 +35972,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>360.9378791584968</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36133,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36212,7 +36212,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36294,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
         <v>231.4844522093428</v>
@@ -36452,10 +36452,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>305.5240716092571</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36689,7 +36689,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L30" t="n">
-        <v>370.3166381105403</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37157,7 +37157,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37394,7 +37394,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>360.9378791584968</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37403,7 +37403,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788845</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
@@ -37628,7 +37628,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M39" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803106</v>
       </c>
       <c r="N39" t="n">
         <v>516.8936174628016</v>
@@ -37637,7 +37637,7 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P39" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
         <v>152.98832074971</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37868,7 +37868,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584966</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -38096,7 +38096,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38105,7 +38105,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1907871.114128669</v>
+        <v>1940449.328643868</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584663</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7605832.043947845</v>
+        <v>7605832.043947843</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>180.1159031720507</v>
       </c>
       <c r="F2" t="n">
-        <v>202.2946864288972</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>145.9272112248127</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>14.83685490770591</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>190.1066023865956</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5.032729720860218</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,19 +1028,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>4.580549094716531</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="E8" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1148,13 +1150,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1215,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.6272807731543457</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>185.6562165419322</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1387,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>274.393591998176</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>188.4551676688973</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>36.48436605884923</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -1549,7 +1551,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>166.3971148792506</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1692,19 +1694,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>104.262613881998</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>60.36693997173244</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>36.48436605884923</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
@@ -1783,10 +1785,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1847,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>78.15662322069609</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>97.25144273425413</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1980,16 +1982,16 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>181.2558810106748</v>
       </c>
       <c r="X18" t="n">
-        <v>48.37669028362031</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2005,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>111.060750249129</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>43.3560697996877</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>310.1745487762969</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
@@ -2099,7 +2101,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>166.5703709901014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.92880121529013</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2226,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>15.60609219526663</v>
       </c>
     </row>
     <row r="22">
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3.289243007175619</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>28.06810387421962</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25.96361909966784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>44.53284210086233</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,25 +2399,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>104.262613881998</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>112.343801139939</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.03218749909144</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>77.41754251185463</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>59.85750677920095</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>180.8778284652363</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2646,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.56224815806319</v>
+        <v>14.83191020883786</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.8658322964595</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>16.83786409935544</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>100.035014724943</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>304.004483100452</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2886,10 +2888,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U30" t="n">
-        <v>195.443275668797</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2992,22 +2994,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>147.3472002825671</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>43.35606979968811</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>383.1282703720288</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>135.2596755014024</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>60.36693997173244</v>
+        <v>120.9673892710046</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3196,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>77.41754251185407</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>152.9376416850984</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>139.9374201800241</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3351,19 +3353,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>104.262613881998</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>61.12808787351286</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>40.73947909319875</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50.15718953603345</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>162.652701399768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,10 +3520,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>24.27261986642386</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3591,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>91.68674581998179</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>60.36693997173244</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>88.59832967195069</v>
       </c>
       <c r="U40" t="n">
-        <v>268.7418428881282</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>97.03190696309368</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3785,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>100.7763204425774</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3819,13 +3821,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>114.7196543111938</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>43.03218749909109</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>16.60419956430074</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>331.6174744130207</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>318.6147334280091</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,10 +4073,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>120.9673892710046</v>
       </c>
       <c r="T45" t="n">
-        <v>100.053298877208</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>123.5544594002519</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.1860399441541</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E2" t="n">
-        <v>710.516763498309</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4364,13 +4366,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
         <v>710.516763498309</v>
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>648.4405950311615</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C3" t="n">
-        <v>473.9875657500345</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D3" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>816.6559320512295</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>816.6559320512295</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>816.6559320512295</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>816.6559320512295</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X3" t="n">
-        <v>816.6559320512295</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y3" t="n">
-        <v>816.6559320512295</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="4">
@@ -4474,10 +4476,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
         <v>136.0777814360265</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>253.395163045047</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>253.395163045047</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>253.395163045047</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>253.395163045047</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4674,22 +4676,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W6" t="n">
-        <v>23.90796037760316</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>253.395163045047</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>253.395163045047</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E8" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4890,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>963.4235385680561</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>963.4235385680561</v>
       </c>
       <c r="T9" t="n">
-        <v>603.1082791007675</v>
+        <v>963.4235385680561</v>
       </c>
       <c r="U9" t="n">
-        <v>603.1082791007675</v>
+        <v>963.4235385680561</v>
       </c>
       <c r="V9" t="n">
-        <v>603.1082791007675</v>
+        <v>963.4235385680561</v>
       </c>
       <c r="W9" t="n">
-        <v>603.1082791007675</v>
+        <v>963.4235385680561</v>
       </c>
       <c r="X9" t="n">
-        <v>395.2567788952347</v>
+        <v>755.5720383625232</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.4964801302808</v>
+        <v>755.5720383625232</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.749822082216</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C11" t="n">
-        <v>2115.893810642661</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F11" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
@@ -5069,22 +5071,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>1262.752508812489</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1262.752508812489</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>1262.752508812489</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="F13" t="n">
         <v>570.9156784273715</v>
@@ -5200,49 +5202,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2344.749822082216</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E14" t="n">
         <v>1371.839859437666</v>
@@ -5279,10 +5281,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5306,22 +5308,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>1371.839859437666</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C15" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
-        <v>298.7453260127371</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>152.2107680396221</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>152.2107680396221</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5358,19 +5360,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0646041288937</v>
+        <v>273.126860749845</v>
       </c>
       <c r="L15" t="n">
-        <v>645.6158192373777</v>
+        <v>642.6780758583288</v>
       </c>
       <c r="M15" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N15" t="n">
-        <v>1640.568559592726</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
         <v>2344.749822082216</v>
@@ -5385,22 +5387,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X15" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y15" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="F16" t="n">
         <v>570.9156784273715</v>
@@ -5437,49 +5439,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1539.569324489713</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="C17" t="n">
-        <v>1539.569324489713</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.303625882962</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E17" t="n">
-        <v>795.5153732847182</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F17" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G17" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
         <v>46.89499644164432</v>
@@ -5513,13 +5515,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5537,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>2265.803738020907</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>1913.035082750793</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X17" t="n">
-        <v>1539.569324489713</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y17" t="n">
-        <v>1539.569324489713</v>
+        <v>457.8809012312519</v>
       </c>
     </row>
     <row r="18">
@@ -5592,49 +5594,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X18" t="n">
-        <v>1157.094557224842</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y18" t="n">
         <v>1157.094557224842</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.0775724508656</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
-        <v>159.0775724508656</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D19" t="n">
         <v>46.89499644164432</v>
@@ -5704,19 +5706,19 @@
         <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>379.8701515943957</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V19" t="n">
-        <v>379.8701515943957</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="W19" t="n">
-        <v>379.8701515943957</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="X19" t="n">
-        <v>379.8701515943957</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.0775724508656</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1164.47789022513</v>
+        <v>1643.124096615033</v>
       </c>
       <c r="C20" t="n">
-        <v>795.5153732847182</v>
+        <v>1274.161579674621</v>
       </c>
       <c r="D20" t="n">
-        <v>795.5153732847182</v>
+        <v>1274.161579674621</v>
       </c>
       <c r="E20" t="n">
-        <v>795.5153732847182</v>
+        <v>1274.161579674621</v>
       </c>
       <c r="F20" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G20" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
         <v>762.5916738244549</v>
@@ -5780,22 +5782,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T20" t="n">
-        <v>2050.393517622824</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U20" t="n">
-        <v>2050.393517622824</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V20" t="n">
-        <v>1719.330630279253</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="W20" t="n">
-        <v>1719.330630279253</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="X20" t="n">
-        <v>1719.330630279253</v>
+        <v>1643.124096615033</v>
       </c>
       <c r="Y20" t="n">
-        <v>1551.077730289252</v>
+        <v>1643.124096615033</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L21" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2290.276285501115</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.0727469424309</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="C22" t="n">
-        <v>222.136564014524</v>
+        <v>198.1305577080532</v>
       </c>
       <c r="D22" t="n">
-        <v>222.136564014524</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E22" t="n">
-        <v>222.136564014524</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>75.24661651661364</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>75.24661651661364</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>75.24661651661364</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5935,25 +5937,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X22" t="n">
-        <v>391.0727469424309</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.0727469424309</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1592.28953067257</v>
+        <v>1655.59865527635</v>
       </c>
       <c r="C23" t="n">
-        <v>1592.28953067257</v>
+        <v>1286.636138335938</v>
       </c>
       <c r="D23" t="n">
-        <v>1592.28953067257</v>
+        <v>928.3704397291879</v>
       </c>
       <c r="E23" t="n">
-        <v>1206.501278074326</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F23" t="n">
-        <v>795.5153732847182</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6011,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>2042.198495340472</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>2042.198495340472</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082216</v>
+        <v>2042.198495340472</v>
       </c>
       <c r="W23" t="n">
-        <v>1991.981166812102</v>
+        <v>2042.198495340472</v>
       </c>
       <c r="X23" t="n">
-        <v>1618.515408551022</v>
+        <v>2042.198495340472</v>
       </c>
       <c r="Y23" t="n">
-        <v>1618.515408551022</v>
+        <v>2042.198495340472</v>
       </c>
     </row>
     <row r="24">
@@ -6045,22 +6047,22 @@
         <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>447.6797356739884</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="D24" t="n">
-        <v>298.7453260127371</v>
+        <v>473.1983552938641</v>
       </c>
       <c r="E24" t="n">
-        <v>193.4295544147594</v>
+        <v>473.1983552938641</v>
       </c>
       <c r="F24" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6181,16 +6183,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V25" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W25" t="n">
-        <v>2055.332652045256</v>
+        <v>2011.865795985567</v>
       </c>
       <c r="X25" t="n">
-        <v>1827.343101147238</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y25" t="n">
-        <v>1827.343101147238</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1174.017763155455</v>
+        <v>1346.642207246303</v>
       </c>
       <c r="C26" t="n">
-        <v>1174.017763155455</v>
+        <v>1346.642207246303</v>
       </c>
       <c r="D26" t="n">
-        <v>1174.017763155455</v>
+        <v>1346.642207246303</v>
       </c>
       <c r="E26" t="n">
-        <v>788.2295105572106</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F26" t="n">
-        <v>377.243605767603</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
         <v>762.591673824455</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.287694022417</v>
       </c>
       <c r="S26" t="n">
-        <v>2161.554709220192</v>
+        <v>2284.287694022417</v>
       </c>
       <c r="T26" t="n">
-        <v>1941.571949851771</v>
+        <v>2064.304934653996</v>
       </c>
       <c r="U26" t="n">
-        <v>1687.785527736638</v>
+        <v>2064.304934653996</v>
       </c>
       <c r="V26" t="n">
-        <v>1356.722640393067</v>
+        <v>1733.242047310425</v>
       </c>
       <c r="W26" t="n">
-        <v>1174.017763155455</v>
+        <v>1733.242047310425</v>
       </c>
       <c r="X26" t="n">
-        <v>1174.017763155455</v>
+        <v>1733.242047310425</v>
       </c>
       <c r="Y26" t="n">
-        <v>1174.017763155455</v>
+        <v>1733.242047310425</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>636.554030853528</v>
+        <v>667.5947762567861</v>
       </c>
       <c r="C27" t="n">
-        <v>462.101001572401</v>
+        <v>493.141746975659</v>
       </c>
       <c r="D27" t="n">
-        <v>313.1665919111497</v>
+        <v>344.2073373144078</v>
       </c>
       <c r="E27" t="n">
-        <v>153.9291369056942</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="F27" t="n">
-        <v>153.9291369056942</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G27" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6306,19 +6308,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P27" t="n">
         <v>2344.749822082216</v>
@@ -6327,28 +6329,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2298.727349195284</v>
+        <v>2329.768094598542</v>
       </c>
       <c r="S27" t="n">
-        <v>2137.493794095839</v>
+        <v>2168.534539499097</v>
       </c>
       <c r="T27" t="n">
-        <v>1937.95109614987</v>
+        <v>1968.991841553128</v>
       </c>
       <c r="U27" t="n">
-        <v>1709.770631804027</v>
+        <v>1740.811377207285</v>
       </c>
       <c r="V27" t="n">
-        <v>1474.618523572284</v>
+        <v>1505.659268975542</v>
       </c>
       <c r="W27" t="n">
-        <v>1220.381166844083</v>
+        <v>1251.421912247341</v>
       </c>
       <c r="X27" t="n">
-        <v>1012.52966663855</v>
+        <v>1043.570412041808</v>
       </c>
       <c r="Y27" t="n">
-        <v>804.7693678735961</v>
+        <v>835.8101132768541</v>
       </c>
     </row>
     <row r="28">
@@ -6406,25 +6408,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R28" t="n">
-        <v>2190.391887156797</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S28" t="n">
-        <v>2004.66882423108</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T28" t="n">
-        <v>2004.66882423108</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U28" t="n">
-        <v>2004.66882423108</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V28" t="n">
-        <v>2004.66882423108</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="W28" t="n">
-        <v>2004.66882423108</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X28" t="n">
-        <v>2004.66882423108</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y28" t="n">
         <v>1783.87624508755</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1282.349095302097</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="C29" t="n">
-        <v>1282.349095302097</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.349095302097</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="E29" t="n">
-        <v>896.5608427038526</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F29" t="n">
-        <v>896.5608427038526</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G29" t="n">
-        <v>478.2890751867374</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H29" t="n">
-        <v>147.9404658607787</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6467,10 +6469,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6482,7 +6484,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
         <v>2270.376276991246</v>
@@ -6494,19 +6496,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645668</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V29" t="n">
-        <v>1282.349095302097</v>
+        <v>1306.336747190665</v>
       </c>
       <c r="W29" t="n">
-        <v>1282.349095302097</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="X29" t="n">
-        <v>1282.349095302097</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="Y29" t="n">
-        <v>1282.349095302097</v>
+        <v>953.5680919205511</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>814.129334229901</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>639.676304948774</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>490.7418952875228</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6564,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T30" t="n">
-        <v>2084.763385350902</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U30" t="n">
-        <v>1887.3459351804</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V30" t="n">
-        <v>1652.193826948657</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W30" t="n">
-        <v>1397.956470220456</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X30" t="n">
-        <v>1190.104970014923</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y30" t="n">
-        <v>982.344671249969</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q31" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>412.4263787765005</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>195.7305522826212</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T31" t="n">
-        <v>46.89499644164432</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="U31" t="n">
-        <v>46.89499644164432</v>
+        <v>1827.670254986225</v>
       </c>
       <c r="V31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>929.5804400319828</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="C32" t="n">
-        <v>929.5804400319828</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="D32" t="n">
-        <v>929.5804400319828</v>
+        <v>1728.915465522471</v>
       </c>
       <c r="E32" t="n">
-        <v>929.5804400319828</v>
+        <v>1343.127212924227</v>
       </c>
       <c r="F32" t="n">
-        <v>929.5804400319828</v>
+        <v>932.1413081346193</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>513.8695406175041</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>183.5209312915454</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164432</v>
+        <v>46.89499644164391</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915531</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6719,7 +6721,7 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
         <v>2270.376276991246</v>
@@ -6728,22 +6730,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645668</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302097</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319828</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X32" t="n">
-        <v>929.5804400319828</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y32" t="n">
-        <v>929.5804400319828</v>
+        <v>2087.181164129222</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C33" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D33" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
         <v>273.1268607498447</v>
@@ -6801,28 +6803,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T33" t="n">
-        <v>2062.095821155272</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U33" t="n">
-        <v>2062.095821155272</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J34" t="n">
         <v>46.89499644164432</v>
@@ -6889,19 +6891,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>529.5690355455486</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>274.8845473396617</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W34" t="n">
-        <v>274.8845473396617</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>929.5804400319823</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="C35" t="n">
-        <v>929.5804400319823</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D35" t="n">
-        <v>929.5804400319823</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E35" t="n">
-        <v>929.5804400319823</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F35" t="n">
-        <v>518.5945352423748</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G35" t="n">
-        <v>518.5945352423748</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H35" t="n">
-        <v>188.2459259164161</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6962,25 +6964,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U35" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V35" t="n">
-        <v>1282.349095302096</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W35" t="n">
-        <v>929.5804400319823</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X35" t="n">
-        <v>929.5804400319823</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y35" t="n">
-        <v>929.5804400319823</v>
+        <v>2270.376276991246</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551154</v>
+        <v>982.9090180005296</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739884</v>
+        <v>808.4559887194026</v>
       </c>
       <c r="D36" t="n">
-        <v>298.7453260127371</v>
+        <v>659.5215790581514</v>
       </c>
       <c r="E36" t="n">
-        <v>298.7453260127371</v>
+        <v>500.2841240526959</v>
       </c>
       <c r="F36" t="n">
-        <v>152.2107680396221</v>
+        <v>353.7495660795809</v>
       </c>
       <c r="G36" t="n">
-        <v>152.2107680396221</v>
+        <v>215.6746802122729</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>108.640539748223</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
         <v>1637.630816213677</v>
@@ -7041,25 +7043,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>2056.125618951029</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1820.973510719286</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1566.736153991084</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1358.884653785552</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.3481019751835</v>
+        <v>1151.124355020598</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.55882425581953</v>
+        <v>2163.101357251976</v>
       </c>
       <c r="C37" t="n">
-        <v>97.55882425581953</v>
+        <v>1994.16517432407</v>
       </c>
       <c r="D37" t="n">
-        <v>97.55882425581953</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="E37" t="n">
-        <v>97.55882425581953</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="F37" t="n">
-        <v>97.55882425581953</v>
+        <v>1953.014185341041</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W37" t="n">
-        <v>318.3514033993496</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X37" t="n">
-        <v>318.3514033993496</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.55882425581953</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1536.13551741723</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="C38" t="n">
-        <v>1536.13551741723</v>
+        <v>1644.724417798234</v>
       </c>
       <c r="D38" t="n">
-        <v>1536.13551741723</v>
+        <v>1286.458719191483</v>
       </c>
       <c r="E38" t="n">
-        <v>1371.839859437666</v>
+        <v>900.6704665932391</v>
       </c>
       <c r="F38" t="n">
-        <v>960.8539546480588</v>
+        <v>489.6845618036315</v>
       </c>
       <c r="G38" t="n">
-        <v>542.5821871309436</v>
+        <v>71.41279428651637</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164378</v>
       </c>
       <c r="I38" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164378</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915539</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K38" t="n">
-        <v>392.902094927568</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244555</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
       </c>
       <c r="O38" t="n">
-        <v>1962.442083972114</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.886645733488</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q38" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.198404760801</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>1867.198404760801</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>1536.13551741723</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W38" t="n">
-        <v>1536.13551741723</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="X38" t="n">
-        <v>1536.13551741723</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="Y38" t="n">
-        <v>1536.13551741723</v>
+        <v>2013.686934738646</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551163</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739893</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D39" t="n">
-        <v>298.745326012738</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E39" t="n">
-        <v>139.5078710072825</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F39" t="n">
-        <v>139.5078710072825</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164434</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164434</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
         <v>106.8945330050503</v>
@@ -7260,43 +7262,43 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M39" t="n">
-        <v>974.4476973832911</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671465</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.884810267791</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540004</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296872</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197427</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251458</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905615</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673873</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.959900945671</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401382</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751844</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702978</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7357,25 +7359,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363102</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="U40" t="n">
-        <v>336.312166478605</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V40" t="n">
-        <v>336.312166478605</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2242.955559008906</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U41" t="n">
-        <v>1989.169136893773</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V41" t="n">
-        <v>1989.169136893773</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W41" t="n">
-        <v>1989.169136893773</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X41" t="n">
-        <v>1989.169136893773</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y41" t="n">
-        <v>1989.169136893773</v>
+        <v>2087.181164129222</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="E42" t="n">
         <v>506.2543262569397</v>
@@ -7488,52 +7490,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="C43" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V43" t="n">
-        <v>2090.06533387633</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>1800.648163839369</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X43" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="Y43" t="n">
-        <v>1783.87624508755</v>
+        <v>90.36185250133229</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.857513382056</v>
+        <v>750.8246592537942</v>
       </c>
       <c r="C44" t="n">
-        <v>46.89499644164432</v>
+        <v>381.8621423133824</v>
       </c>
       <c r="D44" t="n">
-        <v>46.89499644164432</v>
+        <v>381.8621423133824</v>
       </c>
       <c r="E44" t="n">
-        <v>46.89499644164432</v>
+        <v>381.8621423133824</v>
       </c>
       <c r="F44" t="n">
-        <v>46.89499644164432</v>
+        <v>381.8621423133824</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7688,10 +7690,10 @@
         <v>1514.429749490686</v>
       </c>
       <c r="X44" t="n">
-        <v>1192.59668542199</v>
+        <v>1140.963991229606</v>
       </c>
       <c r="Y44" t="n">
-        <v>802.4573534461779</v>
+        <v>750.8246592537942</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>881.8450797407235</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C45" t="n">
-        <v>707.3920504595965</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D45" t="n">
-        <v>558.4576407983452</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E45" t="n">
-        <v>399.2201857928898</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F45" t="n">
-        <v>252.6856278197748</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6107419524668</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7728,13 +7730,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
         <v>1637.630816213677</v>
@@ -7749,28 +7751,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2284.306083296871</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="T45" t="n">
-        <v>2183.242145037065</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U45" t="n">
-        <v>1955.061680691222</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V45" t="n">
-        <v>1719.90957245948</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.672215731278</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X45" t="n">
-        <v>1257.820715525745</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y45" t="n">
-        <v>1050.060416760791</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>215.8311793695513</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="C46" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="D46" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="E46" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="F46" t="n">
-        <v>46.89499644164432</v>
+        <v>171.697480684323</v>
       </c>
       <c r="G46" t="n">
         <v>46.89499644164432</v>
@@ -7837,19 +7839,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X46" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="Y46" t="n">
-        <v>397.479644199791</v>
+        <v>318.5874281822333</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998491</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>261.497819457984</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>108.5094987082738</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q27" t="n">
         <v>57.08896698613911</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>200.8922269696948</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>415.7693643006697</v>
+        <v>476.3749567889587</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720741</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10908,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>249.1437329574071</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>323.3866360392485</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>74.84737671923705</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>44.34541948052799</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>108.936681964082</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23495,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23540,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>182.8438538381624</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23580,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.701185177411446</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23625,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>137.1803309947772</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>108.936681964082</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23735,19 +23737,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>249.5956352494388</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>288.9864959217995</v>
       </c>
     </row>
     <row r="18">
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23868,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>70.43910215024479</v>
       </c>
       <c r="X18" t="n">
-        <v>157.3962949198572</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23893,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>37.55472276908333</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>175.2285835524071</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>96.70149696541449</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>219.6675676659522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24063,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.910500182201289</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24114,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.0766035820377</v>
       </c>
     </row>
     <row r="22">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>145.3262300110367</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.4465608509556</v>
@@ -24145,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>111.010221754672</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24175,7 +24177,7 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>356.7702225638128</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>173.2500896738751</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -24266,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,25 +24287,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>53.38246657340298</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>32.72541125344488</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.7997926828459</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24421,10 +24423,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>209.1054558247364</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>13.77230286086018</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>168.3631402521767</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24534,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.27705323942823</v>
+        <v>45.00739118865356</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>30.66303593248099</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372356</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24686,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>63.65018082476413</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>23.74777536968293</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24774,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U30" t="n">
-        <v>30.45538403358736</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24880,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>78.27223734092829</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>208.7815735241399</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>30.96077946991517</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>28.42552004830475</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25014,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>137.1803309947772</v>
+        <v>76.57988169550505</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25084,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>208.8717912896821</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>212.3352500859092</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>23.7477753696831</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25239,19 +25241,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.701185177411446</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>5.910500182201396</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>107.8759939250136</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>117.2893713149222</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>157.3867970498209</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>219.2776686724938</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>302.7725033662753</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
@@ -25479,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>45.00739118865307</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>165.5317197306519</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>137.0211079515447</v>
       </c>
       <c r="U40" t="n">
-        <v>17.54749091340796</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>285.7019347003869</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>117.0066113321601</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25707,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>42.92542614420709</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25752,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>96.04613812980045</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25843,13 +25845,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>209.1054558247364</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>82.47157542892324</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>51.11636725045992</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25959,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>38.65383027744564</v>
       </c>
       <c r="T45" t="n">
-        <v>97.49397208930165</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>43.89210145070376</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26077,7 +26079,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.39861340794073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.6789867497</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581454.6789867501</v>
+        <v>581454.6789867498</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>581454.6789867501</v>
+        <v>581454.6789867498</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>581454.67898675</v>
+        <v>581454.6789867498</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>581454.6789867501</v>
+        <v>581454.6789867498</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>581454.6789867501</v>
+        <v>581454.6789867498</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>581454.6789867501</v>
+        <v>581454.6789867498</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>581454.67898675</v>
+        <v>581454.6789867498</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.6789867501</v>
       </c>
     </row>
     <row r="16">
@@ -26314,13 +26316,13 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
-        <v>370126.5396699015</v>
+        <v>370126.5396699014</v>
       </c>
       <c r="F2" t="n">
         <v>370126.5396699014</v>
@@ -26335,22 +26337,22 @@
         <v>370126.5396699014</v>
       </c>
       <c r="J2" t="n">
+        <v>370126.5396699012</v>
+      </c>
+      <c r="K2" t="n">
+        <v>370126.5396699012</v>
+      </c>
+      <c r="L2" t="n">
+        <v>370126.5396699015</v>
+      </c>
+      <c r="M2" t="n">
         <v>370126.5396699014</v>
       </c>
-      <c r="K2" t="n">
-        <v>370126.5396699014</v>
-      </c>
-      <c r="L2" t="n">
-        <v>370126.5396699014</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>370126.5396699012</v>
       </c>
-      <c r="N2" t="n">
-        <v>370126.5396699013</v>
-      </c>
       <c r="O2" t="n">
-        <v>370126.5396699013</v>
+        <v>370126.5396699012</v>
       </c>
       <c r="P2" t="n">
         <v>370126.5396699012</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>304227.7958470786</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
         <v>26710.01986761898</v>
@@ -26448,13 +26450,13 @@
         <v>26710.01986761898</v>
       </c>
       <c r="M4" t="n">
-        <v>26710.01986761897</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="N4" t="n">
         <v>26710.01986761898</v>
       </c>
       <c r="O4" t="n">
-        <v>26710.01986761897</v>
+        <v>26710.01986761898</v>
       </c>
       <c r="P4" t="n">
         <v>26710.01986761897</v>
@@ -26503,7 +26505,7 @@
         <v>42221.72212544655</v>
       </c>
       <c r="N5" t="n">
-        <v>42221.72212544657</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="O5" t="n">
         <v>42221.72212544655</v>
@@ -26522,19 +26524,19 @@
         <v>141450.7427626103</v>
       </c>
       <c r="C6" t="n">
-        <v>222220.1742941579</v>
+        <v>222220.1742941578</v>
       </c>
       <c r="D6" t="n">
-        <v>222220.1742941581</v>
+        <v>222220.1742941578</v>
       </c>
       <c r="E6" t="n">
-        <v>-44417.54510211671</v>
+        <v>-44417.54510211672</v>
       </c>
       <c r="F6" t="n">
-        <v>301194.7976768359</v>
+        <v>301194.7976768358</v>
       </c>
       <c r="G6" t="n">
-        <v>301194.7976768359</v>
+        <v>301194.7976768358</v>
       </c>
       <c r="H6" t="n">
         <v>301194.7976768357</v>
@@ -26543,22 +26545,22 @@
         <v>301194.7976768359</v>
       </c>
       <c r="J6" t="n">
-        <v>238134.8550777296</v>
+        <v>238134.8550777295</v>
       </c>
       <c r="K6" t="n">
-        <v>301194.7976768358</v>
+        <v>301194.7976768357</v>
       </c>
       <c r="L6" t="n">
-        <v>301194.7976768358</v>
+        <v>301194.797676836</v>
       </c>
       <c r="M6" t="n">
-        <v>215176.2638567597</v>
+        <v>215176.2638567598</v>
       </c>
       <c r="N6" t="n">
-        <v>301194.7976768358</v>
+        <v>301194.7976768357</v>
       </c>
       <c r="O6" t="n">
-        <v>301194.7976768358</v>
+        <v>301194.7976768357</v>
       </c>
       <c r="P6" t="n">
         <v>301194.7976768357</v>
@@ -26747,7 +26749,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="G3" t="n">
         <v>301.9048087062786</v>
@@ -26796,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="F4" t="n">
         <v>586.1874555205541</v>
@@ -26823,7 +26825,7 @@
         <v>586.1874555205541</v>
       </c>
       <c r="N4" t="n">
-        <v>586.1874555205543</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="O4" t="n">
         <v>586.1874555205541</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>201.814466900211</v>
       </c>
       <c r="F2" t="n">
-        <v>204.5813593128142</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27436,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>142.8645164699222</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>54.23751747000892</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27546,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.5841931152253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>147.3903175997337</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>175.1662893844119</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>140.0364826725237</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -27746,19 +27748,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>201.1924361087609</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>178.3269633122123</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463981</v>
       </c>
       <c r="E8" t="n">
-        <v>169.6449844288198</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -27868,13 +27870,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27935,19 +27937,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>99.53055337948879</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>14.50851215288941</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27998,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28023,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28032,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.60374760888197</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31756,25 +31758,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31783,16 +31785,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -31859,7 +31861,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -31868,10 +31870,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,43 +31995,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J15" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L16" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T16" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35258,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
@@ -35416,13 +35418,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35507,7 +35509,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35583,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547482</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35738,10 +35740,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K18" t="n">
-        <v>75.52871390503797</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35981,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
         <v>516.8936174628016</v>
@@ -36218,7 +36220,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36689,7 +36691,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>167.911442166459</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37394,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>453.3206074199177</v>
+        <v>513.9261999082067</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788845</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
@@ -37628,10 +37630,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M39" t="n">
-        <v>271.5478197803106</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255823</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
@@ -37868,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>360.9378791584966</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -37877,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38105,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1940449.328643868</v>
+        <v>1898625.546974861</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584664</v>
+        <v>460545.8926584667</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7605832.043947843</v>
+        <v>7605832.043947844</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>180.1159031720507</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>4.580549094716531</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>152.8155841186202</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>5.032729720860218</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -998,7 +998,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>5.126811730683291</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>48.83589518354164</v>
       </c>
       <c r="D8" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1226,16 +1226,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6272807731543457</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>274.393591998176</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>227.5007825242982</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
-        <v>188.4551676688973</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>100.0805668703172</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.320794865197</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884923</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>135.2777152858748</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>166.3971148792506</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>60.36693997173244</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>231.0831146758705</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884923</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>79.78561726792442</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -1900,7 +1900,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>23.0888194841386</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.25144273425413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>45.56224815806302</v>
       </c>
       <c r="H18" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>181.2558810106748</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.3560697996877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>310.1745487762969</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>267.1450815261198</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>113.1507170764644</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.60609219526663</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.289243007175619</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>156.8482076906872</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>374.4011162258621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>44.53284210086233</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,16 +2399,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>137.182573118133</v>
       </c>
       <c r="F24" t="n">
-        <v>112.343801139939</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>136.6941370086349</v>
@@ -2450,7 +2450,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>114.7943575370065</v>
       </c>
       <c r="W25" t="n">
-        <v>77.41754251185463</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>323.1446555336279</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>59.85750677920095</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2645,13 +2645,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.83191020883786</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.8986597023843</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>213.0411528834737</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>176.8310480250585</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>47.14185878262047</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>304.004483100452</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>36.29588146532114</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2888,10 +2888,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>43.35606979968811</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>190.2462252260553</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>300.0170397779642</v>
       </c>
       <c r="I32" t="n">
-        <v>135.2596755014024</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>120.9673892710046</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
         <v>225.8986597023843</v>
@@ -3198,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>20.47505656865777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9376416850984</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>315.3403249028327</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>61.12808787351286</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>144.1648043931067</v>
       </c>
       <c r="U36" t="n">
         <v>225.8986597023843</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.1842455277944</v>
       </c>
       <c r="D37" t="n">
-        <v>40.73947909319875</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>340.8041846796074</v>
       </c>
       <c r="H38" t="n">
-        <v>24.27261986642386</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>88.59832967195069</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>77.50776027739582</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.03190696309368</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>54.77722488326664</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3821,16 +3821,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>114.7196543111938</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.6941370086349</v>
@@ -3839,7 +3839,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>156.0950948650261</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>43.03218749909109</v>
+        <v>110.9705324835873</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>331.6174744130207</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>54.77722488326664</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,7 +4073,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>120.9673892710046</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>15.60609219526663</v>
       </c>
     </row>
     <row r="46">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>123.5544594002519</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>88.90986270619094</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D2" t="n">
-        <v>223.6192102101089</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.90796037760316</v>
+        <v>433.7223438482202</v>
       </c>
       <c r="C3" t="n">
-        <v>23.90796037760316</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>23.90796037760316</v>
+        <v>809.6979796332421</v>
       </c>
       <c r="Y3" t="n">
-        <v>23.90796037760316</v>
+        <v>601.9376808682882</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>730.8505943024719</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
         <v>487.4018176583718</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>730.8505943024719</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253.395163045047</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="C6" t="n">
-        <v>253.395163045047</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="D6" t="n">
-        <v>253.395163045047</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E6" t="n">
-        <v>253.395163045047</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F6" t="n">
-        <v>248.3115976704407</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>958.8785578028753</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>785.4612132535442</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>785.4612132535442</v>
       </c>
       <c r="U6" t="n">
-        <v>461.2466632505798</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="V6" t="n">
-        <v>461.2466632505798</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="W6" t="n">
-        <v>461.2466632505798</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="X6" t="n">
-        <v>253.395163045047</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="Y6" t="n">
-        <v>253.395163045047</v>
+        <v>557.2375949899332</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4764,13 +4764,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>753.253405673024</v>
       </c>
       <c r="D8" t="n">
-        <v>761.6974622895962</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>587.3567013424552</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>587.3567013424552</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>438.4222916812039</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>279.1848366757484</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>963.4235385680561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>963.4235385680561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>963.4235385680561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>963.4235385680561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>963.4235385680561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>963.4235385680561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>755.5720383625232</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>755.5720383625232</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4944,25 +4944,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>876.152668748367</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="C11" t="n">
-        <v>876.152668748367</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="D11" t="n">
-        <v>876.152668748367</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="E11" t="n">
-        <v>876.152668748367</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="F11" t="n">
-        <v>465.1667639587595</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G11" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>2124.767062713794</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U11" t="n">
-        <v>1870.980640598661</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V11" t="n">
-        <v>1539.917753255091</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W11" t="n">
-        <v>1262.752508812489</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="X11" t="n">
-        <v>1262.752508812489</v>
+        <v>953.5680919205511</v>
       </c>
       <c r="Y11" t="n">
-        <v>1262.752508812489</v>
+        <v>953.5680919205511</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>921.1634746939509</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C12" t="n">
-        <v>746.7104454128239</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>597.7760357515726</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H12" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
@@ -5123,49 +5123,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>273.1268607498445</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L12" t="n">
-        <v>642.6780758583284</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V12" t="n">
-        <v>1504.990610684506</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W12" t="n">
-        <v>1504.990610684506</v>
+        <v>1465.946337676985</v>
       </c>
       <c r="X12" t="n">
-        <v>1297.139110478973</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.378811714019</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363101</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363101</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1371.839859437666</v>
+        <v>1345.864872018173</v>
       </c>
       <c r="C14" t="n">
-        <v>1371.839859437666</v>
+        <v>1209.220715163754</v>
       </c>
       <c r="D14" t="n">
-        <v>1371.839859437666</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5281,10 +5281,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5302,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T14" t="n">
-        <v>2124.767062713795</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U14" t="n">
-        <v>1870.980640598662</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V14" t="n">
-        <v>1539.917753255091</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W14" t="n">
-        <v>1371.839859437666</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="X14" t="n">
-        <v>1371.839859437666</v>
+        <v>1345.864872018173</v>
       </c>
       <c r="Y14" t="n">
-        <v>1371.839859437666</v>
+        <v>1345.864872018173</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G15" t="n">
         <v>221.6448824165167</v>
@@ -5360,22 +5360,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>273.126860749845</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L15" t="n">
-        <v>642.6780758583288</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5387,22 +5387,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2062.095821155272</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1226.779970122487</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1226.779970122487</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>1019.019671357534</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363101</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363101</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200977</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362074</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228447</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496714</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363101</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R16" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S16" t="n">
-        <v>607.7685734363101</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T16" t="n">
-        <v>607.7685734363101</v>
+        <v>486.192781108057</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363101</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363101</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363101</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363101</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363101</v>
+        <v>197.0116358539801</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>457.8809012312519</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="C17" t="n">
-        <v>457.8809012312519</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="D17" t="n">
-        <v>457.8809012312519</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E17" t="n">
-        <v>457.8809012312519</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G17" t="n">
         <v>46.89499644164432</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>1610.5090625082</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>1257.740407238086</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709025</v>
+        <v>1234.418367355117</v>
       </c>
       <c r="Y17" t="n">
-        <v>457.8809012312519</v>
+        <v>1234.418367355117</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5630,16 +5630,16 @@
         <v>1755.793104690959</v>
       </c>
       <c r="V18" t="n">
-        <v>1755.793104690959</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="19">
@@ -5703,19 +5703,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>90.68900634031877</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V19" t="n">
-        <v>90.68900634031877</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W19" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>90.68900634031877</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
         <v>46.89499644164432</v>
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1643.124096615033</v>
+        <v>1145.996185441417</v>
       </c>
       <c r="C20" t="n">
-        <v>1274.161579674621</v>
+        <v>1145.996185441417</v>
       </c>
       <c r="D20" t="n">
-        <v>1274.161579674621</v>
+        <v>1145.996185441417</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.161579674621</v>
+        <v>1145.996185441417</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>735.0102806518098</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>316.7385131346946</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5779,25 +5779,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2270.376276991246</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>2016.589854876113</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V20" t="n">
-        <v>2016.589854876113</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W20" t="n">
-        <v>2016.589854876113</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="X20" t="n">
-        <v>1643.124096615033</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="Y20" t="n">
-        <v>1643.124096615033</v>
+        <v>1145.996185441417</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>814.129334229901</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C21" t="n">
-        <v>639.676304948774</v>
+        <v>615.8950726940565</v>
       </c>
       <c r="D21" t="n">
-        <v>490.7418952875228</v>
+        <v>466.9606630328052</v>
       </c>
       <c r="E21" t="n">
-        <v>331.5044402820673</v>
+        <v>307.7232080273497</v>
       </c>
       <c r="F21" t="n">
-        <v>184.9698823089523</v>
+        <v>161.1886500542347</v>
       </c>
       <c r="G21" t="n">
         <v>46.89499644164432</v>
@@ -5834,22 +5834,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5876,7 +5876,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>982.344671249969</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.1305577080532</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>198.1305577080532</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8080900240374</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
         <v>46.89499644164432</v>
@@ -5913,7 +5913,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
@@ -5949,13 +5949,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="X22" t="n">
-        <v>379.7790225382929</v>
+        <v>449.3360404154141</v>
       </c>
       <c r="Y22" t="n">
-        <v>379.7790225382929</v>
+        <v>228.543461271884</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1655.59865527635</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="C23" t="n">
-        <v>1286.636138335938</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="D23" t="n">
-        <v>928.3704397291879</v>
+        <v>1584.684223757015</v>
       </c>
       <c r="E23" t="n">
-        <v>542.5821871309436</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F23" t="n">
-        <v>542.5821871309436</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2042.198495340472</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2042.198495340472</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>2042.198495340472</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>2042.198495340472</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X23" t="n">
-        <v>2042.198495340472</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y23" t="n">
-        <v>2042.198495340472</v>
+        <v>1971.284063821136</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.1327649551154</v>
+        <v>821.6754629010848</v>
       </c>
       <c r="C24" t="n">
-        <v>622.1327649551154</v>
+        <v>647.2224336199578</v>
       </c>
       <c r="D24" t="n">
-        <v>473.1983552938641</v>
+        <v>498.2880239587065</v>
       </c>
       <c r="E24" t="n">
-        <v>473.1983552938641</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F24" t="n">
         <v>359.7197682838247</v>
@@ -6068,25 +6068,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6098,22 +6098,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673872</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X24" t="n">
-        <v>998.1084007401373</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.3481019751835</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1783.87624508755</v>
+        <v>491.8146769342835</v>
       </c>
       <c r="C25" t="n">
-        <v>1783.87624508755</v>
+        <v>491.8146769342835</v>
       </c>
       <c r="D25" t="n">
-        <v>1783.87624508755</v>
+        <v>341.6980375219478</v>
       </c>
       <c r="E25" t="n">
-        <v>1783.87624508755</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M25" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N25" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O25" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V25" t="n">
-        <v>2090.06533387633</v>
+        <v>491.8146769342835</v>
       </c>
       <c r="W25" t="n">
-        <v>2011.865795985567</v>
+        <v>491.8146769342835</v>
       </c>
       <c r="X25" t="n">
-        <v>1783.87624508755</v>
+        <v>491.8146769342835</v>
       </c>
       <c r="Y25" t="n">
-        <v>1783.87624508755</v>
+        <v>491.8146769342835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1346.642207246303</v>
+        <v>742.2662563453166</v>
       </c>
       <c r="C26" t="n">
-        <v>1346.642207246303</v>
+        <v>373.3037394049049</v>
       </c>
       <c r="D26" t="n">
-        <v>1346.642207246303</v>
+        <v>373.3037394049049</v>
       </c>
       <c r="E26" t="n">
-        <v>960.8539546480588</v>
+        <v>373.3037394049049</v>
       </c>
       <c r="F26" t="n">
-        <v>960.8539546480588</v>
+        <v>373.3037394049049</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2284.287694022417</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2284.287694022417</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T26" t="n">
-        <v>2064.304934653996</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U26" t="n">
-        <v>2064.304934653996</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V26" t="n">
-        <v>1733.242047310425</v>
+        <v>1502.331854670518</v>
       </c>
       <c r="W26" t="n">
-        <v>1733.242047310425</v>
+        <v>1502.331854670518</v>
       </c>
       <c r="X26" t="n">
-        <v>1733.242047310425</v>
+        <v>1128.866096409438</v>
       </c>
       <c r="Y26" t="n">
-        <v>1733.242047310425</v>
+        <v>1128.866096409438</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>667.5947762567861</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C27" t="n">
-        <v>493.141746975659</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D27" t="n">
-        <v>344.2073373144078</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E27" t="n">
-        <v>184.9698823089523</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F27" t="n">
-        <v>184.9698823089523</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6305,22 +6305,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P27" t="n">
         <v>2344.749822082216</v>
@@ -6329,28 +6329,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2329.768094598542</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2168.534539499097</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T27" t="n">
-        <v>1968.991841553128</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U27" t="n">
-        <v>1740.811377207285</v>
+        <v>1955.335802636929</v>
       </c>
       <c r="V27" t="n">
-        <v>1505.659268975542</v>
+        <v>1720.183694405186</v>
       </c>
       <c r="W27" t="n">
-        <v>1251.421912247341</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X27" t="n">
-        <v>1043.570412041808</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y27" t="n">
-        <v>835.8101132768541</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>274.7934182835589</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U28" t="n">
-        <v>2055.568676828139</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V28" t="n">
-        <v>1800.884188622252</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>953.5680919205511</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="C29" t="n">
-        <v>953.5680919205511</v>
+        <v>1249.552891610611</v>
       </c>
       <c r="D29" t="n">
-        <v>953.5680919205511</v>
+        <v>891.2871930038602</v>
       </c>
       <c r="E29" t="n">
-        <v>953.5680919205511</v>
+        <v>505.498940405616</v>
       </c>
       <c r="F29" t="n">
-        <v>542.5821871309436</v>
+        <v>94.51303561600844</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>94.51303561600844</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>1306.336747190665</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W29" t="n">
-        <v>953.5680919205511</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X29" t="n">
-        <v>953.5680919205511</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y29" t="n">
-        <v>953.5680919205511</v>
+        <v>1618.515408551022</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6569,25 +6569,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2344.749822082216</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T30" t="n">
-        <v>2290.276285501115</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2116.851400240302</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>1827.670254986225</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>1783.87624508755</v>
+        <v>415.6006691675675</v>
       </c>
       <c r="Y31" t="n">
-        <v>1783.87624508755</v>
+        <v>194.8080900240374</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2087.181164129222</v>
+        <v>1154.00253148424</v>
       </c>
       <c r="C32" t="n">
-        <v>2087.181164129222</v>
+        <v>1154.00253148424</v>
       </c>
       <c r="D32" t="n">
-        <v>1728.915465522471</v>
+        <v>1154.00253148424</v>
       </c>
       <c r="E32" t="n">
-        <v>1343.127212924227</v>
+        <v>768.214278885996</v>
       </c>
       <c r="F32" t="n">
-        <v>932.1413081346193</v>
+        <v>768.214278885996</v>
       </c>
       <c r="G32" t="n">
-        <v>513.8695406175041</v>
+        <v>349.9425113688808</v>
       </c>
       <c r="H32" t="n">
-        <v>183.5209312915454</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
-        <v>46.89499644164391</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915531</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6721,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
         <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T32" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U32" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V32" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W32" t="n">
-        <v>2087.181164129222</v>
+        <v>1917.607621721132</v>
       </c>
       <c r="X32" t="n">
-        <v>2087.181164129222</v>
+        <v>1544.141863460052</v>
       </c>
       <c r="Y32" t="n">
-        <v>2087.181164129222</v>
+        <v>1154.00253148424</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.1634746939509</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C33" t="n">
-        <v>746.7104454128239</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D33" t="n">
-        <v>597.7760357515726</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E33" t="n">
-        <v>438.5385807461172</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F33" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
         <v>46.89499644164432</v>
@@ -6779,52 +6779,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S33" t="n">
-        <v>2344.749822082216</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T33" t="n">
-        <v>2222.560539990292</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U33" t="n">
-        <v>1994.38007564445</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V33" t="n">
-        <v>1759.227967412707</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W33" t="n">
-        <v>1504.990610684506</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X33" t="n">
-        <v>1297.139110478973</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y33" t="n">
-        <v>1089.378811714019</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C34" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D34" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E34" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F34" t="n">
-        <v>570.9156784273715</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G34" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
         <v>46.89499644164432</v>
@@ -6882,28 +6882,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363102</v>
+        <v>236.7148120170114</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="W34" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="X34" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.7685734363102</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2270.376276991246</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C35" t="n">
-        <v>2115.893810642661</v>
+        <v>751.2088297498206</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.628112035911</v>
+        <v>751.2088297498206</v>
       </c>
       <c r="E35" t="n">
-        <v>1371.839859437666</v>
+        <v>365.4205771515763</v>
       </c>
       <c r="F35" t="n">
-        <v>960.8539546480588</v>
+        <v>365.4205771515763</v>
       </c>
       <c r="G35" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6979,10 +6979,10 @@
         <v>2270.376276991246</v>
       </c>
       <c r="X35" t="n">
-        <v>2270.376276991246</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="Y35" t="n">
-        <v>2270.376276991246</v>
+        <v>1506.771186754354</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>982.9090180005296</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C36" t="n">
-        <v>808.4559887194026</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D36" t="n">
-        <v>659.5215790581514</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E36" t="n">
-        <v>500.2841240526959</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F36" t="n">
-        <v>353.7495660795809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G36" t="n">
-        <v>215.6746802122729</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>108.640539748223</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7019,13 +7019,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N36" t="n">
         <v>1637.630816213677</v>
@@ -7043,25 +7043,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2284.306083296871</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U36" t="n">
-        <v>2056.125618951029</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V36" t="n">
-        <v>1820.973510719286</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W36" t="n">
-        <v>1566.736153991084</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X36" t="n">
-        <v>1358.884653785552</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y36" t="n">
-        <v>1151.124355020598</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2163.101357251976</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C37" t="n">
-        <v>1994.16517432407</v>
+        <v>496.4713557314674</v>
       </c>
       <c r="D37" t="n">
-        <v>1953.014185341041</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="E37" t="n">
-        <v>1953.014185341041</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="F37" t="n">
-        <v>1953.014185341041</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="G37" t="n">
-        <v>1783.87624508755</v>
+        <v>346.3547163191317</v>
       </c>
       <c r="H37" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2013.686934738646</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="C38" t="n">
-        <v>1644.724417798234</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="D38" t="n">
-        <v>1286.458719191483</v>
+        <v>1107.27850955737</v>
       </c>
       <c r="E38" t="n">
-        <v>900.6704665932391</v>
+        <v>721.4902569591256</v>
       </c>
       <c r="F38" t="n">
-        <v>489.6845618036315</v>
+        <v>721.4902569591256</v>
       </c>
       <c r="G38" t="n">
-        <v>71.41279428651637</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164378</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
-        <v>46.89499644164378</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U38" t="n">
-        <v>2344.749822082216</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V38" t="n">
-        <v>2013.686934738646</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.686934738646</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="X38" t="n">
-        <v>2013.686934738646</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="Y38" t="n">
-        <v>2013.686934738646</v>
+        <v>1465.54420816412</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7283,22 +7283,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="40">
@@ -7335,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7359,10 +7359,10 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>301.5794846475312</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U40" t="n">
         <v>301.5794846475312</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1989.169136893773</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C41" t="n">
-        <v>1620.206619953362</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D41" t="n">
-        <v>1261.940921346611</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E41" t="n">
-        <v>876.152668748367</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
         <v>46.89499644164432</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="T41" t="n">
-        <v>2087.181164129222</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="U41" t="n">
-        <v>2087.181164129222</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="V41" t="n">
-        <v>2087.181164129222</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="W41" t="n">
-        <v>2087.181164129222</v>
+        <v>1936.650636626984</v>
       </c>
       <c r="X41" t="n">
-        <v>2087.181164129222</v>
+        <v>1936.650636626984</v>
       </c>
       <c r="Y41" t="n">
-        <v>2087.181164129222</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>625.6945070595847</v>
       </c>
       <c r="C42" t="n">
-        <v>622.1327649551154</v>
+        <v>451.2414777784577</v>
       </c>
       <c r="D42" t="n">
-        <v>622.1327649551154</v>
+        <v>451.2414777784577</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
         <v>1637.630816213677</v>
@@ -7517,25 +7517,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2126.634270301895</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>1927.091572355926</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1698.911108010084</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1463.758999778341</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1209.521643050139</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1001.670142844607</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>793.9098440796527</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.36185250133229</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="C43" t="n">
-        <v>90.36185250133229</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="D43" t="n">
-        <v>90.36185250133229</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="E43" t="n">
-        <v>90.36185250133229</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="F43" t="n">
-        <v>90.36185250133229</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="G43" t="n">
-        <v>90.36185250133229</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="H43" t="n">
-        <v>90.36185250133229</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="I43" t="n">
         <v>46.89499644164432</v>
@@ -7608,13 +7608,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W43" t="n">
-        <v>318.3514033993496</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X43" t="n">
-        <v>90.36185250133229</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.36185250133229</v>
+        <v>158.9864433947628</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>750.8246592537942</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C44" t="n">
-        <v>381.8621423133824</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D44" t="n">
-        <v>381.8621423133824</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E44" t="n">
-        <v>381.8621423133824</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>381.8621423133824</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
         <v>46.89499644164432</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="U44" t="n">
-        <v>1867.1984047608</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="V44" t="n">
-        <v>1867.1984047608</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="W44" t="n">
-        <v>1514.429749490686</v>
+        <v>1936.650636626984</v>
       </c>
       <c r="X44" t="n">
-        <v>1140.963991229606</v>
+        <v>1936.650636626984</v>
       </c>
       <c r="Y44" t="n">
-        <v>750.8246592537942</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.1634746939509</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C45" t="n">
-        <v>746.7104454128239</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D45" t="n">
-        <v>597.7760357515726</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E45" t="n">
-        <v>438.5385807461172</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F45" t="n">
-        <v>292.0040227730022</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G45" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
         <v>46.89499644164432</v>
@@ -7727,16 +7727,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
         <v>1637.630816213677</v>
@@ -7751,28 +7751,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.560539990292</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2222.560539990292</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1994.38007564445</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1759.227967412707</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1504.990610684506</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1297.139110478973</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.378811714019</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>171.697480684323</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
         <v>46.89499644164432</v>
@@ -7833,25 +7833,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>517.9606313088447</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363102</v>
+        <v>517.9606313088447</v>
       </c>
       <c r="U46" t="n">
-        <v>318.5874281822333</v>
+        <v>517.9606313088447</v>
       </c>
       <c r="V46" t="n">
-        <v>318.5874281822333</v>
+        <v>517.9606313088447</v>
       </c>
       <c r="W46" t="n">
-        <v>318.5874281822333</v>
+        <v>228.543461271884</v>
       </c>
       <c r="X46" t="n">
-        <v>318.5874281822333</v>
+        <v>228.543461271884</v>
       </c>
       <c r="Y46" t="n">
-        <v>318.5874281822333</v>
+        <v>228.543461271884</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212002</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
-        <v>261.4978194579835</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212002</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
-        <v>261.497819457984</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>309.7493254456951</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>214.8846069991543</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>254.8897585970532</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q27" t="n">
         <v>57.08896698613911</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488642</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>74.84737671923705</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>142.2303181541708</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>44.34541948052799</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>105.6924183331603</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>23.11316778137218</v>
       </c>
       <c r="F13" t="n">
-        <v>108.936681964082</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704632</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>229.9951764851328</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>181.3631617334038</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>182.8438538381624</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23627,19 +23627,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>137.1803309947772</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>20.61186848504914</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.936681964082</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23706,10 +23706,10 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>145.833820355571</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>346.6422811943305</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.9864959217995</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>91.13188885057184</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23870,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>70.43910215024479</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>175.2285835524071</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>96.70149696541449</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>59.90004170657926</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>23.54341993217044</v>
       </c>
       <c r="H21" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.0766035820377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>145.3262300110367</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>129.6747906459038</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>7.529253846399683</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>173.2500896738751</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
         <v>251.2485578939812</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,16 +24287,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>20.46250733726797</v>
       </c>
       <c r="F24" t="n">
-        <v>32.72541125344488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4465608509556</v>
@@ -24423,13 +24423,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>137.3432857868215</v>
       </c>
       <c r="W25" t="n">
-        <v>209.1054558247364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>90.94439430831602</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>13.77230286086018</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.00739118865356</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>38.65383027744588</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>37.69782020388197</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>269.6851342372356</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>279.9032644500786</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>23.74777536968293</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>130.2373021845462</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24891,22 +24891,22 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>208.7815735241399</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>35.46343016298184</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>27.02808345473494</v>
       </c>
       <c r="I32" t="n">
-        <v>28.42552004830475</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
         <v>217.7829317747374</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>53.38246657340287</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>76.57988169550505</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25086,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>265.8142772328784</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.3352500859092</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>98.7487249391113</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>5.910500182201396</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.0625755708334</v>
       </c>
       <c r="D37" t="n">
-        <v>107.8759939250136</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620181</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>73.28486516233659</v>
       </c>
       <c r="H38" t="n">
-        <v>302.7725033662753</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>45.00739118865397</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>137.0211079515447</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.7019347003869</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.85258475679447</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25709,16 +25709,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>42.92542614420709</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>3.526124683424086</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>96.04613812980045</v>
+        <v>28.10779314530426</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>82.47157542892324</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.85258475679447</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>38.65383027744564</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>190.0766035820377</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>43.89210145070376</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26073,19 +26073,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>125.6190055227496</v>
       </c>
       <c r="T46" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581454.6789867497</v>
+        <v>581454.6789867498</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.67898675</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.67898675</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.6789867502</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.6789867501</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>581454.6789867498</v>
+        <v>581454.67898675</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
         <v>370126.5396699014</v>
@@ -26328,34 +26328,34 @@
         <v>370126.5396699014</v>
       </c>
       <c r="G2" t="n">
+        <v>370126.5396699013</v>
+      </c>
+      <c r="H2" t="n">
         <v>370126.5396699014</v>
-      </c>
-      <c r="H2" t="n">
-        <v>370126.5396699012</v>
       </c>
       <c r="I2" t="n">
         <v>370126.5396699014</v>
       </c>
       <c r="J2" t="n">
-        <v>370126.5396699012</v>
+        <v>370126.5396699013</v>
       </c>
       <c r="K2" t="n">
-        <v>370126.5396699012</v>
+        <v>370126.5396699014</v>
       </c>
       <c r="L2" t="n">
-        <v>370126.5396699015</v>
+        <v>370126.5396699014</v>
       </c>
       <c r="M2" t="n">
         <v>370126.5396699014</v>
       </c>
       <c r="N2" t="n">
-        <v>370126.5396699012</v>
+        <v>370126.5396699013</v>
       </c>
       <c r="O2" t="n">
-        <v>370126.5396699012</v>
+        <v>370126.5396699014</v>
       </c>
       <c r="P2" t="n">
-        <v>370126.5396699012</v>
+        <v>370126.5396699013</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789526</v>
+        <v>345612.3427789527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007603</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>26710.01986761898</v>
       </c>
       <c r="P4" t="n">
-        <v>26710.01986761897</v>
+        <v>26710.01986761898</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141450.7427626103</v>
+        <v>141450.7427626102</v>
       </c>
       <c r="C6" t="n">
-        <v>222220.1742941578</v>
+        <v>222220.1742941582</v>
       </c>
       <c r="D6" t="n">
-        <v>222220.1742941578</v>
+        <v>222220.1742941579</v>
       </c>
       <c r="E6" t="n">
-        <v>-44417.54510211672</v>
+        <v>-51724.78436051316</v>
       </c>
       <c r="F6" t="n">
-        <v>301194.7976768358</v>
+        <v>293887.5584184395</v>
       </c>
       <c r="G6" t="n">
-        <v>301194.7976768358</v>
+        <v>293887.5584184395</v>
       </c>
       <c r="H6" t="n">
-        <v>301194.7976768357</v>
+        <v>293887.5584184396</v>
       </c>
       <c r="I6" t="n">
-        <v>301194.7976768359</v>
+        <v>293887.5584184395</v>
       </c>
       <c r="J6" t="n">
-        <v>238134.8550777295</v>
+        <v>230827.6158193332</v>
       </c>
       <c r="K6" t="n">
-        <v>301194.7976768357</v>
+        <v>293887.5584184396</v>
       </c>
       <c r="L6" t="n">
-        <v>301194.797676836</v>
+        <v>293887.5584184396</v>
       </c>
       <c r="M6" t="n">
-        <v>215176.2638567598</v>
+        <v>207869.0245983635</v>
       </c>
       <c r="N6" t="n">
-        <v>301194.7976768357</v>
+        <v>293887.5584184395</v>
       </c>
       <c r="O6" t="n">
-        <v>301194.7976768357</v>
+        <v>293887.5584184395</v>
       </c>
       <c r="P6" t="n">
-        <v>301194.7976768357</v>
+        <v>293887.5584184395</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26773,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="F4" t="n">
         <v>586.1874555205541</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428949</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>201.814466900211</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>142.8645164699222</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27478,10 +27478,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>52.95740108485728</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27554,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>147.3903175997337</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27587,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>138.0053911458572</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27700,13 +27700,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>140.0364826725237</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.03102242195985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27794,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>316.4369965874659</v>
       </c>
       <c r="D8" t="n">
-        <v>164.3376445463981</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27946,16 +27946,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.53055337948879</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>133.7786181105064</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>37.52545250819722</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31758,43 +31758,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454668</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823738</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,43 +31995,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069872</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586785</v>
+        <v>154.3856233586786</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870997</v>
+        <v>191.5290174870998</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452114</v>
+        <v>213.1129356452115</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466655</v>
+        <v>216.5613257466656</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463718</v>
+        <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108854</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393906</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09709501385528548</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.649380154575769</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087033</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570082</v>
+        <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454668</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415502</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.89280709988239</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
-        <v>2.61745772831198</v>
+        <v>2.617457728311981</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051114</v>
+        <v>0.04272237859051115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031253</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.840375457618698</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047095</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K16" t="n">
-        <v>63.2515320535449</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823738</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069443</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N16" t="n">
-        <v>83.31087942545558</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598722</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292341</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464806</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100415</v>
+        <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031734</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471595</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32490,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32560,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33912,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33982,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>228.5170346547477</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
@@ -35503,13 +35503,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107711</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874304</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>228.5170346547482</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651352</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
@@ -35740,13 +35740,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766205</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.1235031178169</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685987</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
@@ -35983,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36135,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2840556651353</v>
+        <v>217.3283173608304</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36214,13 +36214,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36454,10 +36454,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
@@ -36691,7 +36691,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>244.9184791209679</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37159,7 +37159,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
@@ -37168,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37396,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37557,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37633,16 +37633,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37718,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
-        <v>373.2840556651353</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M42" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38107,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
